--- a/pm/开发计划.xlsx
+++ b/pm/开发计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <r>
       <rPr>
@@ -126,10 +126,6 @@
       </rPr>
       <t>logservice</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学会使用Unity的UI布局及编程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -148,39 +144,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>定义几个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Sproto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持的协议格式，并且传给服务端，在服务端打印相关数据，然后将数据包返回客户端，并且由客户端将数据打印</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">实现客户端人物会通过服务端广播给其他客户端：
 </t>
     </r>
@@ -528,6 +491,10 @@
   </si>
   <si>
     <t>实现场景切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -611,6 +578,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -905,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -950,92 +920,82 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="4" spans="1:3" s="5" customFormat="1" ht="68.25">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="68.25">
-      <c r="A5">
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="5" customFormat="1">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="112.5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="42">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="112.5">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="70.5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="70.5">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
